--- a/pythonProject/classData.xlsx
+++ b/pythonProject/classData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qsebso/Desktop/CP2/Final_Project_Points_Selector_Project/pythonProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65EF7437-B79A-5149-8954-E4FE0CEFE425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3611A110-2BEB-8842-AA9C-5ABE53AA4568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{4B4EC855-9436-3144-A6E5-F39CDCAB61E4}"/>
   </bookViews>
@@ -38,12 +38,6 @@
     <t>Block #</t>
   </si>
   <si>
-    <t>CRN</t>
-  </si>
-  <si>
-    <t>Dept.</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -63,6 +57,12 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>CP222</t>
+  </si>
+  <si>
+    <t>Spring</t>
   </si>
 </sst>
 </file>
@@ -414,44 +414,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0BC5A9-3164-C14D-9F23-A2351282F435}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2">
         <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/pythonProject/classData.xlsx
+++ b/pythonProject/classData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qsebso/Desktop/CP2/Final_Project_Points_Selector_Project/pythonProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65EF7437-B79A-5149-8954-E4FE0CEFE425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0317F623-9922-A24D-B567-F3BC17F0BB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{4B4EC855-9436-3144-A6E5-F39CDCAB61E4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Block #</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>CP222</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Mathematics &amp; Computer Science</t>
   </si>
 </sst>
 </file>
@@ -414,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0BC5A9-3164-C14D-9F23-A2351282F435}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,6 +463,38 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>23355</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/pythonProject/classData.xlsx
+++ b/pythonProject/classData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qsebso/Desktop/CP2/Final_Project_Points_Selector_Project/pythonProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0317F623-9922-A24D-B567-F3BC17F0BB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573FB0E6-E49C-F74F-9113-438317ACAEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{4B4EC855-9436-3144-A6E5-F39CDCAB61E4}"/>
   </bookViews>
@@ -33,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Block #</t>
   </si>
   <si>
-    <t>CRN</t>
-  </si>
-  <si>
-    <t>Dept.</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -62,16 +56,10 @@
     <t>Waitlist</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>CP222</t>
   </si>
   <si>
     <t>Spring</t>
-  </si>
-  <si>
-    <t>Mathematics &amp; Computer Science</t>
   </si>
 </sst>
 </file>
@@ -423,75 +411,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0BC5A9-3164-C14D-9F23-A2351282F435}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>2023</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>37</v>
-      </c>
-      <c r="G2">
-        <v>23355</v>
-      </c>
       <c r="H2">
-        <v>25</v>
-      </c>
-      <c r="I2">
-        <v>12</v>
-      </c>
-      <c r="J2">
         <v>15</v>
       </c>
     </row>
